--- a/updating_process_SEARO/output_step1/KeyDates.2021-02-23.xlsx
+++ b/updating_process_SEARO/output_step1/KeyDates.2021-02-23.xlsx
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming Later</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
@@ -82,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Narrative_Movements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coming Later</t>
   </si>
   <si>
     <t xml:space="preserve">Narrative_Borders</t>
@@ -452,7 +452,9 @@
       <c r="C2" t="n">
         <v>3.571429</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -464,7 +466,9 @@
       <c r="C3" t="n">
         <v>7.142857</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -476,7 +480,9 @@
       <c r="C4" t="n">
         <v>35.71429</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -488,7 +494,9 @@
       <c r="C5" t="n">
         <v>32.85714</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -500,7 +508,9 @@
       <c r="C6" t="n">
         <v>72.85714</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -512,7 +522,9 @@
       <c r="C7" t="n">
         <v>75.71429</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -524,7 +536,9 @@
       <c r="C8" t="n">
         <v>82.85714</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -536,7 +550,9 @@
       <c r="C9" t="n">
         <v>87.61905</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -548,7 +564,9 @@
       <c r="C10" t="n">
         <v>58.09524</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -560,7 +578,9 @@
       <c r="C11" t="n">
         <v>47.38095</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -572,7 +592,9 @@
       <c r="C12" t="n">
         <v>32.14286</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -584,7 +606,9 @@
       <c r="C13" t="n">
         <v>27.38095</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -596,7 +620,9 @@
       <c r="C14" t="n">
         <v>22.61905</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -608,7 +634,9 @@
       <c r="C15" t="n">
         <v>32.14286</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -620,7 +648,9 @@
       <c r="C16" t="n">
         <v>58.80952</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -632,7 +662,9 @@
       <c r="C17" t="n">
         <v>68.33333</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -644,7 +676,9 @@
       <c r="C18" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -656,7 +690,9 @@
       <c r="C19" t="n">
         <v>52.38095</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -668,1860 +704,2170 @@
       <c r="C20" t="n">
         <v>41.66667</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>15.2381</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>17.14286</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>24.28571</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>38.57143</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
         <v>43.33333</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>46.90476</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>59.28571</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>43922</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>61.19048</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>43924</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>75.47619</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>43925</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>78.33333</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>43927</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
         <v>89.52381</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>87.61905</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>58.80952</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
         <v>58.80952</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>44105</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>57.02381</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>42.7381</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>49.40476</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>68.69048</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
         <v>65.55556</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>71.11111</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>74.44444</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
         <v>68.88889</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="n">
         <v>59.72222</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
         <v>56.38889</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>54.16667</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>43900</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
         <v>5.357143</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
         <v>19.64286</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>28.57143</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
         <v>57.14286</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>60</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>43932</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
         <v>89.52381</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D59"/>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D60"/>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D61"/>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
         <v>70.71429</v>
       </c>
-      <c r="D62"/>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>44005</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D63"/>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
         <v>68.57143</v>
       </c>
-      <c r="D64"/>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>44018</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
         <v>65</v>
       </c>
-      <c r="D65"/>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>68.57143</v>
       </c>
-      <c r="D66"/>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>44039</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="n">
         <v>62.14286</v>
       </c>
-      <c r="D67"/>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>55</v>
       </c>
-      <c r="D68"/>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>44086</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
         <v>59.7619</v>
       </c>
-      <c r="D69"/>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D70"/>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
         <v>76.19048</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>73.33333</v>
       </c>
-      <c r="D72"/>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
         <v>65.47619</v>
       </c>
-      <c r="D73"/>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>54.04762</v>
       </c>
-      <c r="D74"/>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
         <v>48.69048</v>
       </c>
-      <c r="D75"/>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
         <v>12.5</v>
       </c>
-      <c r="D76"/>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>47.7381</v>
       </c>
-      <c r="D77"/>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
         <v>49.52381</v>
       </c>
-      <c r="D78"/>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
         <v>60.95238</v>
       </c>
-      <c r="D79"/>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
         <v>80</v>
       </c>
-      <c r="D80"/>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>43931</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D81"/>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>89.52381</v>
       </c>
-      <c r="D82"/>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>43994</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D83"/>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D84"/>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D85"/>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
         <v>78.33333</v>
       </c>
-      <c r="D86"/>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>44086</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
         <v>75.47619</v>
       </c>
-      <c r="D87"/>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
         <v>70.71429</v>
       </c>
-      <c r="D88"/>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>44132</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
         <v>67.85714</v>
       </c>
-      <c r="D89"/>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
         <v>71.42857</v>
       </c>
-      <c r="D90"/>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
         <v>63.80952</v>
       </c>
-      <c r="D91"/>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
         <v>59.04762</v>
       </c>
-      <c r="D92"/>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
         <v>53.69048</v>
       </c>
-      <c r="D93"/>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
         <v>42.97619</v>
       </c>
-      <c r="D94"/>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
         <v>38.21429</v>
       </c>
-      <c r="D95"/>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96"/>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="n">
         <v>19.64286</v>
       </c>
-      <c r="D97"/>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="n">
         <v>36.78571</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
         <v>42.14286</v>
       </c>
-      <c r="D99"/>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>43920</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
         <v>45.71429</v>
       </c>
-      <c r="D100"/>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
         <v>91.42857</v>
       </c>
-      <c r="D102"/>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>43976</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="n">
         <v>86.66667</v>
       </c>
-      <c r="D103"/>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
         <v>78.33333</v>
       </c>
-      <c r="D104"/>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
         <v>75.47619</v>
       </c>
-      <c r="D105"/>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D106"/>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>44098</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="n">
         <v>89.52381</v>
       </c>
-      <c r="D107"/>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>44104</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
         <v>85.71429</v>
       </c>
-      <c r="D108"/>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>44116</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="n">
         <v>80.95238</v>
       </c>
-      <c r="D109"/>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>44145</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
         <v>83.80952</v>
       </c>
-      <c r="D110"/>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D111"/>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D112"/>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
         <v>71.42857</v>
       </c>
-      <c r="D113"/>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
         <v>76.19048</v>
       </c>
-      <c r="D114"/>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>44234</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D115"/>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>44235</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D116"/>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>43887</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
         <v>1.785714</v>
       </c>
-      <c r="D117"/>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
         <v>4.642857</v>
       </c>
-      <c r="D118"/>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" t="n">
         <v>18.92857</v>
       </c>
-      <c r="D119"/>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" t="n">
         <v>28.45238</v>
       </c>
-      <c r="D120"/>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" t="n">
         <v>31.30952</v>
       </c>
-      <c r="D121"/>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="n">
         <v>47.5</v>
       </c>
-      <c r="D122"/>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" t="n">
         <v>60</v>
       </c>
-      <c r="D123"/>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
         <v>62.85714</v>
       </c>
-      <c r="D124"/>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>43936</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" t="n">
         <v>72.38095</v>
       </c>
-      <c r="D125"/>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D126"/>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>43979</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C127" t="n">
         <v>67.61905</v>
       </c>
-      <c r="D127"/>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D128"/>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D129"/>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C130" t="n">
         <v>64.7619</v>
       </c>
-      <c r="D130"/>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
         <v>52.61905</v>
       </c>
-      <c r="D131"/>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" t="n">
         <v>38.33333</v>
       </c>
-      <c r="D132"/>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>44038</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" t="n">
         <v>43.09524</v>
       </c>
-      <c r="D133"/>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D134"/>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" t="n">
         <v>43.80952</v>
       </c>
-      <c r="D135"/>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D136"/>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" t="n">
         <v>48.57143</v>
       </c>
-      <c r="D137"/>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C138" t="n">
         <v>52.14286</v>
       </c>
-      <c r="D138"/>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>44105</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" t="n">
         <v>48.57143</v>
       </c>
-      <c r="D139"/>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" t="n">
         <v>52.14286</v>
       </c>
-      <c r="D140"/>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C141" t="n">
         <v>47.38095</v>
       </c>
-      <c r="D141"/>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C142" t="n">
         <v>43.80952</v>
       </c>
-      <c r="D142"/>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C143" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D143"/>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" t="n">
         <v>45.95238</v>
       </c>
-      <c r="D144"/>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C145" t="n">
         <v>47.85714</v>
       </c>
-      <c r="D145"/>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C146" t="n">
         <v>55.71429</v>
       </c>
-      <c r="D146"/>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>43866</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C147" t="n">
         <v>1.785714</v>
       </c>
-      <c r="D147"/>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" t="n">
         <v>5.357143</v>
       </c>
-      <c r="D148"/>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" t="n">
         <v>39.64286</v>
       </c>
-      <c r="D149"/>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C150" t="n">
         <v>42.5</v>
       </c>
-      <c r="D150"/>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
         <v>44.28571</v>
       </c>
-      <c r="D151"/>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C152" t="n">
         <v>47.14286</v>
       </c>
-      <c r="D152"/>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C153" t="n">
         <v>45.2381</v>
       </c>
-      <c r="D153"/>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>43919</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C154" t="n">
         <v>50</v>
       </c>
-      <c r="D154"/>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C155" t="n">
         <v>52.85714</v>
       </c>
-      <c r="D155"/>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
         <v>60</v>
       </c>
-      <c r="D156"/>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>43926</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
         <v>64.7619</v>
       </c>
-      <c r="D157"/>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>43927</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D158"/>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C159" t="n">
         <v>76.19048</v>
       </c>
-      <c r="D159"/>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C160" t="n">
         <v>80.95238</v>
       </c>
-      <c r="D160"/>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C161" t="n">
         <v>83.80952</v>
       </c>
-      <c r="D161"/>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C162" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D162"/>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>43958</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C163" t="n">
         <v>71.42857</v>
       </c>
-      <c r="D163"/>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>43989</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C164" t="n">
         <v>69.52381</v>
       </c>
-      <c r="D164"/>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>43992</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D165"/>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C166" t="n">
         <v>74.28571</v>
       </c>
-      <c r="D166"/>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>44088</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167" t="n">
         <v>74.40476</v>
       </c>
-      <c r="D167"/>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>44094</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C168" t="n">
         <v>71.54762</v>
       </c>
-      <c r="D168"/>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" t="n">
         <v>66.78571</v>
       </c>
-      <c r="D169"/>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" t="n">
         <v>65</v>
       </c>
-      <c r="D170"/>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
         <v>68.57143</v>
       </c>
-      <c r="D171"/>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C172" t="n">
         <v>71.42857</v>
       </c>
-      <c r="D172"/>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C173" t="n">
         <v>76.19048</v>
       </c>
-      <c r="D173"/>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
         <v>65.71429</v>
       </c>
-      <c r="D174"/>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>43887</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C175" t="n">
         <v>5.357143</v>
@@ -2533,7 +2879,7 @@
         <v>43895</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C176" t="n">
         <v>7.142857</v>
@@ -2545,7 +2891,7 @@
         <v>43900</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C177" t="n">
         <v>10</v>
@@ -2557,7 +2903,7 @@
         <v>43901</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C178" t="n">
         <v>13.57143</v>
@@ -2569,7 +2915,7 @@
         <v>43909</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C179" t="n">
         <v>17.14286</v>
@@ -2581,7 +2927,7 @@
         <v>43912</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C180" t="n">
         <v>20</v>
@@ -2593,7 +2939,7 @@
         <v>43913</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C181" t="n">
         <v>17.14286</v>
@@ -2605,7 +2951,7 @@
         <v>43914</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C182" t="n">
         <v>85.71429</v>
@@ -2617,7 +2963,7 @@
         <v>43938</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C183" t="n">
         <v>100</v>
@@ -2629,7 +2975,7 @@
         <v>43941</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C184" t="n">
         <v>92.38095</v>
@@ -2641,7 +2987,7 @@
         <v>43968</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C185" t="n">
         <v>87.61905</v>
@@ -2653,7 +2999,7 @@
         <v>43975</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C186" t="n">
         <v>84.04762</v>
@@ -2665,7 +3011,7 @@
         <v>44012</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" t="n">
         <v>78.33333</v>
@@ -2677,7 +3023,7 @@
         <v>44014</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C188" t="n">
         <v>75.47619</v>
@@ -2689,7 +3035,7 @@
         <v>44044</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C189" t="n">
         <v>72.61905</v>
@@ -2701,7 +3047,7 @@
         <v>44095</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190" t="n">
         <v>69.7619</v>
@@ -2713,7 +3059,7 @@
         <v>44119</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C191" t="n">
         <v>58.57143</v>
@@ -2725,7 +3071,7 @@
         <v>44136</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C192" t="n">
         <v>56.66667</v>
@@ -2737,7 +3083,7 @@
         <v>44140</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C193" t="n">
         <v>53.09524</v>
@@ -2749,7 +3095,7 @@
         <v>44166</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C194" t="n">
         <v>50.2381</v>
@@ -2761,7 +3107,7 @@
         <v>44188</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C195" t="n">
         <v>52.02381</v>
@@ -2773,7 +3119,7 @@
         <v>44204</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C196" t="n">
         <v>50.2381</v>
@@ -2785,7 +3131,7 @@
         <v>44228</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C197" t="n">
         <v>38.80952</v>
@@ -2797,7 +3143,7 @@
         <v>44237</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C198" t="n">
         <v>34.04762</v>
@@ -2809,7 +3155,7 @@
         <v>44249</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C199" t="n">
         <v>56.66667</v>
@@ -2821,528 +3167,616 @@
         <v>43858</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C200" t="n">
         <v>9.52381</v>
       </c>
-      <c r="D200"/>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>43864</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C201" t="n">
         <v>23.80952</v>
       </c>
-      <c r="D201"/>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>43876</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C202" t="n">
         <v>67.61905</v>
       </c>
-      <c r="D202"/>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>43895</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C203" t="n">
         <v>77.14286</v>
       </c>
-      <c r="D203"/>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C204" t="n">
         <v>81.90476</v>
       </c>
-      <c r="D204"/>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>44174</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C205" t="n">
         <v>79.04762</v>
       </c>
-      <c r="D205"/>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C206" t="n">
         <v>88.57143</v>
       </c>
-      <c r="D206"/>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C207" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D207"/>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C208" t="n">
         <v>73.33333</v>
       </c>
-      <c r="D208"/>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C209" t="n">
         <v>82.2619</v>
       </c>
-      <c r="D209"/>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C210" t="n">
         <v>87.61905</v>
       </c>
-      <c r="D210"/>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C211" t="n">
         <v>64.7619</v>
       </c>
-      <c r="D211"/>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C212" t="n">
         <v>61.90476</v>
       </c>
-      <c r="D212"/>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C213" t="n">
         <v>58.33333</v>
       </c>
-      <c r="D213"/>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C214" t="n">
         <v>51.19048</v>
       </c>
-      <c r="D214"/>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C215" t="n">
         <v>100</v>
       </c>
-      <c r="D215"/>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C216" t="n">
         <v>84.7619</v>
       </c>
-      <c r="D216"/>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C217" t="n">
         <v>80</v>
       </c>
-      <c r="D217"/>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>44087</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C218" t="n">
         <v>68.80952</v>
       </c>
-      <c r="D218"/>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>44094</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C219" t="n">
         <v>65.95238</v>
       </c>
-      <c r="D219"/>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C220" t="n">
         <v>47.38095</v>
       </c>
-      <c r="D220"/>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C221" t="n">
         <v>72.38095</v>
       </c>
-      <c r="D221"/>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C222" t="n">
         <v>100</v>
       </c>
-      <c r="D222"/>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C223" t="n">
         <v>91.42857</v>
       </c>
-      <c r="D223"/>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>44219</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C224" t="n">
         <v>88.57143</v>
       </c>
-      <c r="D224"/>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C225" t="n">
         <v>73.33333</v>
       </c>
-      <c r="D225"/>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C226" t="n">
         <v>65.47619</v>
       </c>
-      <c r="D226"/>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C227" t="n">
         <v>57.85714</v>
       </c>
-      <c r="D227"/>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C228" t="n">
         <v>11.90476</v>
       </c>
-      <c r="D228"/>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C229" t="n">
         <v>26.19048</v>
       </c>
-      <c r="D229"/>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C230" t="n">
         <v>35.71429</v>
       </c>
-      <c r="D230"/>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C231" t="n">
         <v>45.2381</v>
       </c>
-      <c r="D231"/>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C232" t="n">
         <v>75.71429</v>
       </c>
-      <c r="D232"/>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C233" t="n">
         <v>77.5</v>
       </c>
-      <c r="D233"/>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C234" t="n">
         <v>71.78571</v>
       </c>
-      <c r="D234"/>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C235" t="n">
         <v>67.02381</v>
       </c>
-      <c r="D235"/>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>43981</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C236" t="n">
         <v>81.30952</v>
       </c>
-      <c r="D236"/>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C237" t="n">
         <v>71.78571</v>
       </c>
-      <c r="D237"/>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>43991</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C238" t="n">
         <v>72.7381</v>
       </c>
-      <c r="D238"/>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>43996</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C239" t="n">
         <v>74.52381</v>
       </c>
-      <c r="D239"/>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>43998</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C240" t="n">
         <v>68.80952</v>
       </c>
-      <c r="D240"/>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>44043</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C241" t="n">
         <v>70.59524</v>
       </c>
-      <c r="D241"/>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C242" t="n">
         <v>65.83333</v>
       </c>
-      <c r="D242"/>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C243" t="n">
         <v>60.11905</v>
       </c>
-      <c r="D243"/>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3382,7 +3816,9 @@
       <c r="C2" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3394,170 +3830,198 @@
       <c r="C3" t="n">
         <v>100</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>43924</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>43932</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44086</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>43931</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>43926</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>43929</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>43992</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
@@ -3569,61 +4033,69 @@
         <v>43895</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43981</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3651,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -3664,7 +4136,9 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3676,7 +4150,9 @@
       <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3688,7 +4164,9 @@
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3700,386 +4178,450 @@
       <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44033</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>80</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>75</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>44005</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>44018</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>75</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44026</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44039</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>75</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>44053</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>25</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>80</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>25</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>25</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>75</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>43902</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
         <v>55</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>80</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>44105</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
         <v>55</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>44206</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>25</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
         <v>80</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
         <v>80</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>44014</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>80</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
@@ -4091,7 +4633,7 @@
         <v>44119</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
         <v>55</v>
@@ -4103,7 +4645,7 @@
         <v>44249</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>80</v>
@@ -4115,145 +4657,167 @@
         <v>43876</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
         <v>100</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="n">
         <v>75</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="n">
         <v>25</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>44087</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="n">
         <v>75</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
         <v>25</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
         <v>80</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>44219</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
         <v>80</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
         <v>25</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -4294,7 +4858,9 @@
       <c r="C2" t="n">
         <v>-20</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4306,7 +4872,9 @@
       <c r="C3" t="n">
         <v>80</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -4318,7 +4886,9 @@
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -4330,7 +4900,9 @@
       <c r="C5" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4342,7 +4914,9 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4354,434 +4928,506 @@
       <c r="C7" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44184</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>80</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44218</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>80</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>43994</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43997</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>44098</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>44116</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>43903</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>43979</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>44038</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>44059</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
         <v>80</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>43919</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>44088</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
         <v>80</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>44120</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
         <v>80</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>100</v>
@@ -4793,7 +5439,7 @@
         <v>43941</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>66.66667</v>
@@ -4805,7 +5451,7 @@
         <v>44119</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
         <v>33.33333</v>
@@ -4817,145 +5463,167 @@
         <v>43876</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>44078</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
         <v>100</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
         <v>80</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
         <v>66.66667</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -4963,7 +5631,7 @@
         <v>43915</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
         <v>100</v>
@@ -4975,7 +5643,7 @@
         <v>43955</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>66.66667</v>
@@ -4987,7 +5655,7 @@
         <v>43991</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>33.33333</v>
@@ -5019,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -5032,7 +5700,9 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5044,7 +5714,9 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5056,7 +5728,9 @@
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -5068,230 +5742,268 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44131</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44211</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>80</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44039</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>60</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>80</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>80</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44234</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
         <v>80</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
         <v>80</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44094</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
         <v>80</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>43900</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
         <v>20</v>
@@ -5303,7 +6015,7 @@
         <v>43914</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -5315,7 +6027,7 @@
         <v>44095</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
         <v>80</v>
@@ -5327,7 +6039,7 @@
         <v>44166</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
         <v>60</v>
@@ -5339,7 +6051,7 @@
         <v>44228</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -5351,7 +6063,7 @@
         <v>44249</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
         <v>80</v>
@@ -5363,97 +6075,111 @@
         <v>43876</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>44174</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
         <v>80</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>44138</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
         <v>20</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
         <v>80</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
         <v>60</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +6207,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -5494,7 +6220,9 @@
       <c r="C2" t="n">
         <v>80</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5506,7 +6234,9 @@
       <c r="C3" t="n">
         <v>40</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5518,7 +6248,9 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -5530,7 +6262,9 @@
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -5542,446 +6276,520 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>43908</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>40</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>60</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>40</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>20</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>43994</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>40</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>60</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>44086</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>40</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>44132</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>43910</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>20</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>60</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>40</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>80</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>44104</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
         <v>40</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>44145</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>60</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>44192</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>20</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>44235</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
         <v>40</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>20</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
         <v>40</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>43985</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
         <v>20</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>44063</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
         <v>20</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>44182</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
         <v>20</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
         <v>20</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
         <v>40</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>44213</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
         <v>60</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>44223</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>20</v>
@@ -5993,7 +6801,7 @@
         <v>43913</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6005,7 +6813,7 @@
         <v>43914</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
         <v>100</v>
@@ -6017,7 +6825,7 @@
         <v>43941</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>80</v>
@@ -6029,7 +6837,7 @@
         <v>44012</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>40</v>
@@ -6041,7 +6849,7 @@
         <v>44044</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>20</v>
@@ -6053,7 +6861,7 @@
         <v>44228</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -6065,7 +6873,7 @@
         <v>44249</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>40</v>
@@ -6077,157 +6885,181 @@
         <v>43876</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
         <v>40</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
         <v>80</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
         <v>20</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
         <v>100</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
         <v>60</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>44087</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
         <v>40</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>44094</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
         <v>20</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>44185</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="n">
         <v>80</v>
       </c>
-      <c r="D59"/>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="n">
         <v>100</v>
       </c>
-      <c r="D60"/>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
         <v>80</v>
       </c>
-      <c r="D61"/>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
         <v>20</v>
       </c>
-      <c r="D62"/>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
         <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -6235,13 +7067,13 @@
         <v>43947</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -6249,13 +7081,13 @@
         <v>43991</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
         <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -6263,13 +7095,13 @@
         <v>43998</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -6277,13 +7109,13 @@
         <v>44095</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6324,7 +7156,9 @@
       <c r="C2" t="n">
         <v>25</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6336,7 +7170,9 @@
       <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6348,348 +7184,406 @@
       <c r="C4" t="n">
         <v>100</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>75</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>43927</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44105</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>87.5</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>43900</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>37.5</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43909</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44217</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>62.5</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>87.5</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>43912</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>75</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>44153</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44187</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>62.5</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>37.5</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>75</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>43920</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>43887</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
         <v>12.5</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44027</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
         <v>25</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>44169</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>50</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>43866</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
         <v>12.5</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>37.5</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>43907</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>50</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>44088</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
         <v>87.5</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>44189</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
         <v>75</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>44197</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>43887</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
         <v>37.5</v>
@@ -6701,7 +7595,7 @@
         <v>43895</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
         <v>50</v>
@@ -6713,7 +7607,7 @@
         <v>43901</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
         <v>75</v>
@@ -6725,7 +7619,7 @@
         <v>43909</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
@@ -6737,7 +7631,7 @@
         <v>43975</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
         <v>75</v>
@@ -6749,7 +7643,7 @@
         <v>44140</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
         <v>50</v>
@@ -6761,7 +7655,7 @@
         <v>44188</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>62.5</v>
@@ -6773,7 +7667,7 @@
         <v>44204</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>50</v>
@@ -6785,49 +7679,55 @@
         <v>43864</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>43904</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="n">
         <v>62.5</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="n">
         <v>100</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -6835,13 +7735,13 @@
         <v>43929</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
         <v>62.5</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -6849,7 +7749,7 @@
         <v>43996</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
         <v>75</v>
@@ -6861,13 +7761,13 @@
         <v>44043</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
         <v>87.5</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6908,7 +7808,9 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6920,7 +7822,9 @@
       <c r="C3" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6932,7 +7836,9 @@
       <c r="C4" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6944,7 +7850,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6956,7 +7864,9 @@
       <c r="C6" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6968,386 +7878,450 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>43922</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>43925</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>80</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>44204</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>43921</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>44212</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>43913</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>80</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>43994</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43928</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>43976</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>44104</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>80</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>44181</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>44229</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>43936</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>44067</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
         <v>13.33333</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>43927</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>43958</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>43989</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>43914</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
@@ -7359,7 +8333,7 @@
         <v>43968</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>66.66667</v>
@@ -7371,7 +8345,7 @@
         <v>44014</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>46.66667</v>
@@ -7383,7 +8357,7 @@
         <v>44136</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>33.33333</v>
@@ -7395,7 +8369,7 @@
         <v>44237</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -7407,7 +8381,7 @@
         <v>44249</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>13.33333</v>
@@ -7419,204 +8393,238 @@
         <v>43858</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44183</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>43901</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>43917</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>44087</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>44188</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>44202</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
         <v>80</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>44224</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
         <v>46.66667</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>44228</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>43905</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>43915</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
         <v>66.66667</v>
       </c>
-      <c r="D58"/>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>43916</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>100</v>
       </c>
-      <c r="D59"/>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>33.33333</v>
       </c>
-      <c r="D60"/>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61"/>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
